--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{979F5594-8AAE-4FD0-A6C6-022D692C40FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A128E076-C0A5-4297-8EF4-9BDF8AFF9D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29805" yWindow="1200" windowWidth="25410" windowHeight="13740" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>로그인시도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,7 +595,7 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,7 +671,9 @@
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A128E076-C0A5-4297-8EF4-9BDF8AFF9D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3E3FB6-DA5B-418E-8800-8C0761897D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29805" yWindow="1200" windowWidth="25410" windowHeight="13740" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>로그인시도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>{ 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ 
+    pData :  { 
+         count : 108, 
+         pList   : [ { product_nm : "aaaaa", product_id : "cap_2349809" }, …. ]
+    }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,7 +604,7 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -658,7 +667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="99" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -671,8 +680,8 @@
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.3">

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3E3FB6-DA5B-418E-8800-8C0761897D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3630CF-2F63-43C2-AC5B-3ED38F451D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29805" yWindow="1200" windowWidth="25410" windowHeight="13740" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="(주)선아전자" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>로그인시도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,13 +190,13 @@
   </si>
   <si>
     <t>{ 
-    product_nm : "aaaaa",            // 상품명 ID
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ 
+    product_nm : "aaaaa",            // 상품명
     product_id : "cap_2349809"    // 상품 ID
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ 
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,8 +204,63 @@
     <t>{ 
     pData :  { 
          count : 108, 
-         pList   : [ { product_nm : "aaaaa", product_id : "cap_2349809" }, …. ]
+         pList   : [ { product_nm : "aaaaa", product_id : "cap_2349809", count : 100 }, …. ]
     }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ 
+    product_id : "cap_2349809"    // 상품 ID
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품목록으로 대치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ 
+    product_id : "aaaaa",            // 상품ID
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    pData : { [  { part_no, part_nm, price, weight, size_h, size_v, size_z, count }, {…}, ...
+    ] }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품목록으로 대치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ 
+    part_no : ""   // 부품번호
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    pData : {
+        class_id,
+        product_id,
+        product_nm,
+        price,
+        weight,
+        size_h,
+        size_v,
+        size_z,
+        count
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    pData : { part_no, part_nm, price, weight, size_h, size_v, size_z, count }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +346,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -603,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553ED3CF-FB64-48E3-BACA-99279F6927A6}">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -678,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="214.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -695,24 +762,26 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -725,11 +794,11 @@
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>23</v>
@@ -738,11 +807,13 @@
         <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>25</v>
@@ -751,22 +822,24 @@
         <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1"/>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
@@ -777,7 +850,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1"/>
     </row>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3630CF-2F63-43C2-AC5B-3ED38F451D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40CCA37-21E2-4AC4-AA2C-57894D8A436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
   </bookViews>
@@ -202,15 +202,6 @@
   </si>
   <si>
     <t>{ 
-    pData :  { 
-         count : 108, 
-         pList   : [ { product_nm : "aaaaa", product_id : "cap_2349809", count : 100 }, …. ]
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ 
     product_id : "cap_2349809"    // 상품 ID
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,13 +213,6 @@
   <si>
     <t>{ 
     product_id : "aaaaa",            // 상품ID
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    pData : { [  { part_no, part_nm, price, weight, size_h, size_v, size_z, count }, {…}, ...
-    ] }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,14 +237,31 @@
         size_h,
         size_v,
         size_z,
-        count
+        count,
+        image
     }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{ 
+    pData :  { 
+       count : 108, 
+       pList   : [ { product_nm : "aaaaa", product_id : "cap_2349809", count : 100 , image : "" }, …. ]
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
-    pData : { part_no, part_nm, price, weight, size_h, size_v, size_z, count }
+    pData : { [  { part_no, part_nm, price, weight, size_h, size_v, size_z, count, image}, {…}, ...
+    ] }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    pData : { part_no, part_nm, price, weight, size_h, size_v, size_z, count, image }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553ED3CF-FB64-48E3-BACA-99279F6927A6}">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,7 +682,7 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.75" customWidth="1"/>
     <col min="5" max="5" width="57.5" customWidth="1"/>
-    <col min="6" max="6" width="80.125" customWidth="1"/>
+    <col min="6" max="6" width="83" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -734,7 +735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="99" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -748,10 +749,10 @@
         <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="214.5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="231" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -762,10 +763,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -779,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -807,10 +808,10 @@
         <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -822,7 +823,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>44</v>
@@ -837,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4"/>
     </row>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\자유연습\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40CCA37-21E2-4AC4-AA2C-57894D8A436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7B8116-E33B-4AB8-9B54-39F81F83BE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -244,15 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ 
-    pData :  { 
-       count : 108, 
-       pList   : [ { product_nm : "aaaaa", product_id : "cap_2349809", count : 100 , image : "" }, …. ]
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     pData : { [  { part_no, part_nm, price, weight, size_h, size_v, size_z, count, image}, {…}, ...
     ] }
@@ -262,6 +244,13 @@
   <si>
     <t>{
     pData : { part_no, part_nm, price, weight, size_h, size_v, size_z, count, image }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{     
+     count : 108, 
+     pList   : [ { product_nm : "aaaaa", product_id : "cap_2349809", count : 100 , image : "" }, …. ]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553ED3CF-FB64-48E3-BACA-99279F6927A6}">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -735,7 +724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -749,7 +738,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="231" x14ac:dyDescent="0.3">
@@ -811,7 +800,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -826,7 +815,7 @@
         <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\자유연습\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7B8116-E33B-4AB8-9B54-39F81F83BE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855F8FA7-554C-4297-9204-35C0F09752F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="(주)선아전자" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>로그인시도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,38 @@
     <t>{     
      count : 108, 
      pList   : [ { product_nm : "aaaaa", product_id : "cap_2349809", count : 100 , image : "" }, …. ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "class_id" : "DIO_120",
+    "product_id" : "DIO_120_DLCGBB999340",
+    "product_nm" : "광다이오드_120",
+    "price" : "950",
+    "weight" : "90",
+    "size_h" : "62",
+    "size_v" : "22",
+    "size_z" : "22"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    count : 1,
+    result : "Success"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553ED3CF-FB64-48E3-BACA-99279F6927A6}">
-  <dimension ref="B1:F21"/>
+  <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -741,114 +773,124 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="231" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="165" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="231" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
@@ -914,6 +956,13 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\자유연습\ESupply\설계\01. 화면정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855F8FA7-554C-4297-9204-35C0F09752F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FF86B1-0857-4095-B1C5-B579F2CA6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="(주)선아전자" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>로그인시도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AGadd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,6 +279,38 @@
     <t>{
     count : 1,
     result : "Success"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/goodadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    class_id : "",
+    product_id : "",
+    manufacturing_dttm : "",
+    lot_no : ""
+    count : ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    SEREAL_NOS : [ 일련번호1, 일련번호2, 일련번호3,…. ]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +408,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553ED3CF-FB64-48E3-BACA-99279F6927A6}">
-  <dimension ref="B1:F22"/>
+  <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -775,129 +815,139 @@
     </row>
     <row r="5" spans="2:6" ht="165" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="231" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="231" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -963,6 +1013,13 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FF86B1-0857-4095-B1C5-B579F2CA6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752F14C-29AB-47C0-A01F-192E0F703A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
+    <workbookView xWindow="2325" yWindow="1395" windowWidth="25410" windowHeight="13740" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="(주)선아전자" sheetId="2" r:id="rId1"/>
@@ -310,7 +310,7 @@
   </si>
   <si>
     <t>{
-    SEREAL_NOS : [ 일련번호1, 일련번호2, 일련번호3,…. ]
+    SERIAL_NOS : [ 일련번호1, 일련번호2, 일련번호3,…. ]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553ED3CF-FB64-48E3-BACA-99279F6927A6}">
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752F14C-29AB-47C0-A01F-192E0F703A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9529BB22-94AA-428E-A31F-2AB2CE52213A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1395" windowWidth="25410" windowHeight="13740" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="(주)선아전자" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>로그인시도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +312,46 @@
     <t>{
     SERIAL_NOS : [ 일련번호1, 일련번호2, 일련번호3,…. ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통_코드조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comm/codelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    group_id : ?
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {    code_id : ~~, code_nm : ~~~   }, {    code_id : ~~, code_nm : ~~~   }, ….
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통_제품목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comm/productlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    class_id : ?
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {    product_id : ~~, product_nm : ~~~   }, {    product_id : ~~, product_nm : ~~~   }, ….
+]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +398,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +460,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -732,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553ED3CF-FB64-48E3-BACA-99279F6927A6}">
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -814,36 +866,36 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="165" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -950,19 +1002,35 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+    <row r="14" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9529BB22-94AA-428E-A31F-2AB2CE52213A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09738170-8FC1-470B-B9AA-CEE16A346CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="(주)선아전자" sheetId="2" r:id="rId1"/>
+    <sheet name="(주)효성종합배송" sheetId="3" r:id="rId2"/>
+    <sheet name="(주)차베스전기" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -784,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553ED3CF-FB64-48E3-BACA-99279F6927A6}">
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1093,4 +1095,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5B963E-BA3A-4C8B-A033-DBD08E9B5496}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24081009-C00B-435B-8563-07AE0D9B54D0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09738170-8FC1-470B-B9AA-CEE16A346CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42881C6-258A-4175-9B47-C33C29455ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
   <si>
     <t>로그인시도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,258 @@
     <t>[
     {    product_id : ~~, product_nm : ~~~   }, {    product_id : ~~, product_nm : ~~~   }, ….
 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품(제품)조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 주문 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문조회 화면 뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품등록/수정 화면 뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품등록/저장 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/product/detailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/product/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/goods/detailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록/수정 화면 뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록/저장 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/goods/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품(제품)조회 화면 뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/goods/listView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세조회 화면 뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/order/new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/order/list</t>
+  </si>
+  <si>
+    <t>localhost:7942/order/detailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/order/listView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/order/cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 취소처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 등록/수정 화면 뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 등록/저장 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 목록 조회 화면 뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/customer/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/customer/listView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/customer/detailView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/customer/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request(JSON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response(JSON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_nm  : 기업명으로 검색하기
+manager_nm   : 담당자명으로 검색하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count : 조회건수,
+[
+    { company_id, company_nm, manager_nm, manater_tel }, 
+    ….
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/customer/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 등록/수정 화면 JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품등록/수정 화면 JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품(제품)조회 화면 JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문조회 화면 JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세조회 화면 JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 목록 조회 화면 JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/product/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942/goods/list</t>
+  </si>
+  <si>
+    <t>localhost:7942/order/detail</t>
+  </si>
+  <si>
+    <t>Page View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_id, company_nm, manager_nm
+manager_tel, address, latitude, longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result : 'success' / 'failed',
+msg : '' / '에러메시지'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품정보 전체 칼럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품정보 전체 칼럼 + Image upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐기처분기능 포함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +630,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,8 +661,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -433,13 +697,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +770,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,13 +1449,384 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24081009-C00B-435B-8563-07AE0D9B54D0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42881C6-258A-4175-9B47-C33C29455ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8992B3A7-7586-4751-AE87-58219B760A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="(주)선아전자" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>로그인시도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,18 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>localhost:7942/product/detailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost:7942/product/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost:7942/goods/detailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품등록/수정 화면 뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,41 +409,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>localhost:7942/goods/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품(제품)조회 화면 뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>localhost:7942/goods/listView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주문상세조회 화면 뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>localhost:7942/order/new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost:7942/order/list</t>
-  </si>
-  <si>
-    <t>localhost:7942/order/detailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost:7942/order/listView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost:7942/order/cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주문 취소처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,22 +446,6 @@
   </si>
   <si>
     <t>고객사 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost:7942/customer/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost:7942/customer/listView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost:7942/customer/detailView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost:7942/customer/save</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -529,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>localhost:7942/customer/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,16 +508,6 @@
   <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost:7942/product/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost:7942/goods/list</t>
-  </si>
-  <si>
-    <t>localhost:7942/order/detail</t>
   </si>
   <si>
     <t>Page View</t>
@@ -606,6 +537,85 @@
   </si>
   <si>
     <t>폐기처분기능 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ESupply/charves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7942</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/customer/listView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/customer/list</t>
+  </si>
+  <si>
+    <t>/customer/detailView</t>
+  </si>
+  <si>
+    <t>/customer/detail</t>
+  </si>
+  <si>
+    <t>/customer/save</t>
+  </si>
+  <si>
+    <t>/product/detailView</t>
+  </si>
+  <si>
+    <t>/product/detail</t>
+  </si>
+  <si>
+    <t>/product/save</t>
+  </si>
+  <si>
+    <t>/goods/detailView</t>
+  </si>
+  <si>
+    <t>/goods/save</t>
+  </si>
+  <si>
+    <t>/goods/listView</t>
+  </si>
+  <si>
+    <t>/goods/list</t>
+  </si>
+  <si>
+    <t>/order/new</t>
+  </si>
+  <si>
+    <t>/order/listView</t>
+  </si>
+  <si>
+    <t>/order/list</t>
+  </si>
+  <si>
+    <t>/order/detailView</t>
+  </si>
+  <si>
+    <t>/order/detail</t>
+  </si>
+  <si>
+    <t>/order/cancel</t>
+  </si>
+  <si>
+    <t>ROOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ESupply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:1092</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +623,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,8 +639,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,6 +689,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,12 +766,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,45 +805,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1121,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553ED3CF-FB64-48E3-BACA-99279F6927A6}">
-  <dimension ref="B1:F23"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1139,244 +1171,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:6" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="165" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+    <row r="6" spans="2:6" ht="165" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="2:6" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="231" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="2:6" ht="231" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
@@ -1427,10 +1463,20 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{0D709421-FB4A-47E9-90FC-D091A98D9231}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1449,381 +1495,395 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24081009-C00B-435B-8563-07AE0D9B54D0}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="B1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="D2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="13" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="13" t="s">
+      <c r="D4" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>119</v>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="F7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>114</v>
+      <c r="D8" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B16" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>114</v>
+      <c r="D16" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21" t="s">
-        <v>118</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>114</v>
+        <v>77</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>114</v>
+        <v>96</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8992B3A7-7586-4751-AE87-58219B760A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C02BDE8-F605-488E-83F3-C2B5EC24740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BF6AAFE8-485D-4D85-8366-6D2DAC35A2AB}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
   <si>
     <t>로그인시도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,10 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품(제품)조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,10 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화면이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,63 +377,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품 주문 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문조회 화면 뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품등록/수정 화면 뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품등록/저장 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품등록/수정 화면 뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품등록/저장 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품(제품)조회 화면 뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상세조회 화면 뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 취소처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주문상세조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객사 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객사 등록/수정 화면 뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객사 등록/저장 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객사 목록 조회 화면 뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,39 +414,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객사 등록/수정 화면 JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품등록/수정 화면 JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품(제품)조회 화면 JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문조회 화면 JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상세조회 화면 JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객사 목록 조회 화면 JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Page View</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -548,59 +452,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>localhost:7942</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/customer/listView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/customer/list</t>
   </si>
   <si>
-    <t>/customer/detailView</t>
-  </si>
-  <si>
     <t>/customer/detail</t>
   </si>
   <si>
     <t>/customer/save</t>
   </si>
   <si>
-    <t>/product/detailView</t>
-  </si>
-  <si>
     <t>/product/detail</t>
   </si>
   <si>
     <t>/product/save</t>
   </si>
   <si>
-    <t>/goods/detailView</t>
-  </si>
-  <si>
     <t>/goods/save</t>
   </si>
   <si>
-    <t>/goods/listView</t>
-  </si>
-  <si>
     <t>/goods/list</t>
   </si>
   <si>
     <t>/order/new</t>
   </si>
   <si>
-    <t>/order/listView</t>
-  </si>
-  <si>
     <t>/order/list</t>
   </si>
   <si>
-    <t>/order/detailView</t>
-  </si>
-  <si>
     <t>/order/detail</t>
   </si>
   <si>
@@ -616,6 +494,69 @@
   </si>
   <si>
     <t>http://localhost:1092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:7943</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사 등록/저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 등록/저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록/저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginId , loginPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result, company_id, company_nm, user_level, user_nm, msg
+(result = 'success' / 'failed',  
+  msg = result가 success일 때는 '', result가 failed 일 때는 메시지
+)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,12 +629,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -705,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -726,19 +661,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -774,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,31 +733,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,14 +1087,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>130</v>
+      <c r="C1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
@@ -1495,395 +1411,260 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24081009-C00B-435B-8563-07AE0D9B54D0}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="C10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A16:A20"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03916501-DEDE-48EA-B54B-0240889AA2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B9DE47-9AF2-493F-9F63-4AA327B1BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(주)선아전자" sheetId="1" r:id="rId1"/>
@@ -91,11 +91,6 @@
 )</t>
   </si>
   <si>
-    <t>{ 
-    product_id : "aaaaa",            // 상품ID
-}</t>
-  </si>
-  <si>
     <t>{
     presult : {  [ product_id : "",
                      message : "success"                          // "success" , "failed"
@@ -333,9 +328,6 @@
   </si>
   <si>
     <t>API_Name</t>
-  </si>
-  <si>
-    <t>/part/list</t>
   </si>
   <si>
     <t>상품(제품)조회</t>
@@ -519,6 +511,16 @@
     class_id
     product_id
     serial_no 
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/part/list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ 
+    product_id : "aaaaa",            // 제품ID
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -661,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,12 +688,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,31 +706,31 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1050,8 +1046,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1060,34 +1056,34 @@
     <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.75" customWidth="1"/>
-    <col min="5" max="5" width="57.5" customWidth="1"/>
+    <col min="5" max="5" width="64.75" customWidth="1"/>
     <col min="6" max="6" width="83" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>78</v>
+      <c r="C1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -1095,195 +1091,195 @@
     </row>
     <row r="3" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="165" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="132" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="132" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="E9" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="18" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="D10" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>125</v>
+        <v>20</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>7</v>
@@ -1292,71 +1288,71 @@
     <row r="15" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
+      <c r="E18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1453,241 +1449,241 @@
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>77</v>
+      <c r="A14" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>67</v>
+      <c r="C14" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B9DE47-9AF2-493F-9F63-4AA327B1BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47D9502-B37B-4745-92FC-1B13F274468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,20 +507,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>/part/list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ 
+    product_id : "aaaaa",            // 제품ID
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>{ 
     class_id
     product_id
     serial_no 
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/part/list</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ 
-    product_id : "aaaaa",            // 제품ID
+    out_type                // 출고 구분("DISPOSE", "SALE")
+    order_no                // 주문번호(출고구분이 "SALE" 일때 필수입력)
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1047,7 +1049,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1208,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>120</v>
       </c>
@@ -1216,8 +1218,8 @@
       <c r="D10" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>126</v>
+      <c r="E10" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>124</v>
@@ -1276,10 +1278,10 @@
         <v>51</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>7</v>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47D9502-B37B-4745-92FC-1B13F274468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB7CA72-1969-4494-8530-141FD074EAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,7 +1049,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB7CA72-1969-4494-8530-141FD074EAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7D9451-EACF-4CFC-99A7-58036D723241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
   <si>
     <t>고객</t>
   </si>
@@ -105,11 +105,6 @@
 ]</t>
   </si>
   <si>
-    <t>{
-    pData : { part_no, part_nm, price, weight, size_h, size_v, size_z, count, image }
-}</t>
-  </si>
-  <si>
     <t>{ 
     product_nm : "aaaaa",            // 상품명
     product_id : "cap_2349809"    // 상품 ID
@@ -233,9 +228,6 @@
   </si>
   <si>
     <t>Alogin</t>
-  </si>
-  <si>
-    <t>부품목록</t>
   </si>
   <si>
     <t>{ 
@@ -526,12 +518,92 @@
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>/part/save</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품상세저장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ result : "Success" }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    pData : { part_no, part_nm, price, weight, size_h, size_v, size_z, count, image }
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ class_id, product_id, part_no, count  }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ part_no, part_nm, price, weight, size_h, size_v, size_z, count, image }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/part/list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/part/save</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    result : "Success" 
+    count : 1
+    job : 'I' / 'U'
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>PART_MASTER에 존재하는 PART일 경우엔 Update     job = 'U'
+PART_MASTER에 존재하지 않는 경우엔 Insert            job = 'I'</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품-부품목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품-부품목록_저장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품마스터조회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    optionNo : ( 1 = 부품명, 2 = 부품번호 )
+    searchTxt : 찾으려는 키
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시보류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -558,8 +630,22 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +691,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,22 +809,40 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1046,75 +1156,75 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="39.75" customWidth="1"/>
     <col min="5" max="5" width="64.75" customWidth="1"/>
     <col min="6" max="6" width="83" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6">
       <c r="C1" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="66">
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:6" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="148.5">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -1123,32 +1233,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="66">
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="165" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="165">
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -1157,262 +1267,316 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="66">
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="115.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:6" ht="115.5">
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="132">
+      <c r="B9" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="115.5">
+      <c r="B10" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="82.5">
+      <c r="B11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" ht="33">
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="132" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" ht="66">
+      <c r="B14" s="1"/>
+      <c r="C14" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>125</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="C15" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="66">
+      <c r="B16" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="49.5">
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="132">
+      <c r="B18" s="1"/>
+      <c r="C18" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" ht="33">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" ht="49.5">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="E22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="20" t="s">
+    <row r="23" spans="2:6" ht="49.5">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1431,7 +1595,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -1448,7 +1612,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="9" bestFit="1" customWidth="1"/>
@@ -1457,235 +1621,235 @@
     <col min="6" max="6" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="82.5">
+      <c r="A3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33">
+      <c r="A4" s="18"/>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="18"/>
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="18"/>
+      <c r="B8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18"/>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="18"/>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="66">
       <c r="A14" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7D9451-EACF-4CFC-99A7-58036D723241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3556BB3-A243-49E2-AAFF-1D4CEE5F230A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="148">
   <si>
     <t>고객</t>
   </si>
@@ -598,12 +598,55 @@
     <t>잠시보류</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+    "optionNo":"",
+    "searchTxt":""
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[   {
+        "PRODUCT_ID": "CAPA-7843-4536-27384",
+        "PRODUCT_NM": "카파푸어",
+        "WEIGHT": 2.3,
+        "SIZE_H": 1,
+        "SIZE_V": 1,
+        "SIZE_Z": 1,
+        "PRICE": 900,
+        "CNT": null
+    }, ….. ]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품보러가기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/part/show</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품보는 화면으로 넘어감(redirect()) - 
+    이후 나머지 API는 ㈜차베스전기에 있다.
+    차후에 세션에서 로그인정보를 같이 넘겨주고, 
+    해당 페이지를 리다이렉트 하기 전에 접근 권한 여부를 체크 하도록 한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -644,8 +687,22 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +754,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,37 +875,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1156,10 +1243,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:F31"/>
+  <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1168,23 +1255,25 @@
     <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="39.75" customWidth="1"/>
-    <col min="5" max="5" width="64.75" customWidth="1"/>
-    <col min="6" max="6" width="83" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="64.75" customWidth="1"/>
+    <col min="7" max="7" width="83" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:7">
       <c r="C1" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>101</v>
       </c>
@@ -1194,14 +1283,17 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="66">
+    <row r="3" spans="2:7" ht="66">
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1211,12 +1303,15 @@
       <c r="D3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" ht="148.5">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" ht="148.5">
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
@@ -1226,14 +1321,17 @@
       <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="66">
+    <row r="5" spans="2:7" ht="66">
       <c r="B5" s="1" t="s">
         <v>97</v>
       </c>
@@ -1243,14 +1341,17 @@
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="165">
+    <row r="6" spans="2:7" ht="165">
       <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
@@ -1260,14 +1361,17 @@
       <c r="D6" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="66">
+    <row r="7" spans="2:7" ht="66">
       <c r="B7" s="1" t="s">
         <v>110</v>
       </c>
@@ -1277,14 +1381,17 @@
       <c r="D7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="115.5">
+    <row r="8" spans="2:7" ht="115.5">
       <c r="B8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1294,14 +1401,17 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="132">
+    <row r="9" spans="2:7" ht="132">
       <c r="B9" s="14" t="s">
         <v>114</v>
       </c>
@@ -1311,14 +1421,17 @@
       <c r="D9" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="115.5">
+    <row r="10" spans="2:7" ht="115.5">
       <c r="B10" s="14" t="s">
         <v>118</v>
       </c>
@@ -1328,14 +1441,17 @@
       <c r="D10" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="82.5">
+    <row r="11" spans="2:7" ht="82.5">
       <c r="B11" s="6" t="s">
         <v>95</v>
       </c>
@@ -1345,14 +1461,15 @@
       <c r="D11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:7">
       <c r="B12" s="4" t="s">
         <v>47</v>
       </c>
@@ -1362,12 +1479,13 @@
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" ht="33">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" ht="33">
       <c r="B13" s="1" t="s">
         <v>56</v>
       </c>
@@ -1377,96 +1495,121 @@
       <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" ht="66">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" ht="66">
       <c r="B14" s="1"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:7">
       <c r="B15" s="1"/>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="66">
-      <c r="B16" s="26" t="s">
+    <row r="16" spans="2:7" ht="66">
+      <c r="B16" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="G16" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="49.5">
+    <row r="17" spans="2:7" ht="49.5">
       <c r="B17" s="1"/>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="G17" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="132">
+    <row r="18" spans="2:7" ht="132">
       <c r="B18" s="1"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="G18" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6">
+    <row r="19" spans="2:7" ht="66">
+      <c r="B19" s="32"/>
+      <c r="C19" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
         <v>60</v>
@@ -1474,12 +1617,13 @@
       <c r="D20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6" ht="33">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" ht="33">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>57</v>
@@ -1487,12 +1631,13 @@
       <c r="D21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" ht="49.5">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" ht="49.5">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>52</v>
@@ -1500,14 +1645,15 @@
       <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="49.5">
+    <row r="23" spans="2:7" ht="49.5">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>53</v>
@@ -1515,73 +1661,82 @@
       <c r="D23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:7">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1608,8 +1763,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1656,7 +1811,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1676,7 +1831,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="33">
-      <c r="A4" s="18"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="1" t="s">
         <v>69</v>
       </c>
@@ -1694,7 +1849,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="33">
-      <c r="A5" s="19"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="1" t="s">
         <v>93</v>
       </c>
@@ -1712,7 +1867,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1732,7 +1887,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="1" t="s">
         <v>91</v>
       </c>
@@ -1748,7 +1903,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="18"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>92</v>
       </c>
@@ -1763,8 +1918,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:6" ht="135">
+      <c r="A9" s="26"/>
       <c r="B9" s="1" t="s">
         <v>79</v>
       </c>
@@ -1774,11 +1929,15 @@
       <c r="D9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="1" t="s">
         <v>72</v>
       </c>
@@ -1792,7 +1951,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1808,7 +1967,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
@@ -1822,7 +1981,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="1" t="s">
         <v>73</v>
       </c>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3556BB3-A243-49E2-AAFF-1D4CEE5F230A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68276E7-E6A6-4700-A5D0-CF717772C86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(주)선아전자" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="150">
   <si>
     <t>고객</t>
   </si>
@@ -639,6 +639,27 @@
     이후 나머지 API는 ㈜차베스전기에 있다.
     차후에 세션에서 로그인정보를 같이 넘겨주고, 
     해당 페이지를 리다이렉트 하기 전에 접근 권한 여부를 체크 하도록 한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    user_id : 'charvesson',
+    company_id : 'charves',
+    orderInfo : [ 
+        { product_id : 'THPD-4565-1526-46375',
+          count : 3
+        }, 
+        :
+    ]
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    result : 'Success',
+    order_no : 'CO-240827190225-000000000006'
+    msg : ''
+}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +723,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,6 +784,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -820,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,37 +926,46 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,7 +1281,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1283,7 +1319,7 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>145</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1303,7 +1339,7 @@
       <c r="D3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>146</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1321,7 +1357,7 @@
       <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="27" t="s">
         <v>146</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1341,7 +1377,7 @@
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>146</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1361,7 +1397,7 @@
       <c r="D6" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="27" t="s">
         <v>146</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1381,7 +1417,7 @@
       <c r="D7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="27" t="s">
         <v>146</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1401,7 +1437,7 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>146</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1421,7 +1457,7 @@
       <c r="D9" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>146</v>
       </c>
       <c r="F9" s="17" t="s">
@@ -1441,7 +1477,7 @@
       <c r="D10" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="27" t="s">
         <v>146</v>
       </c>
       <c r="F10" s="17" t="s">
@@ -1495,7 +1531,7 @@
       <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="27" t="s">
         <v>146</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1511,7 +1547,7 @@
       <c r="D14" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F14" s="17" t="s">
@@ -1529,7 +1565,7 @@
       <c r="D15" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -1565,7 +1601,7 @@
       <c r="D17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F17" s="19" t="s">
@@ -1583,7 +1619,7 @@
       <c r="D18" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F18" s="15" t="s">
@@ -1594,20 +1630,20 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="66">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="35"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="4"/>
@@ -1763,8 +1799,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1772,7 +1808,7 @@
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.25" customWidth="1"/>
     <col min="6" max="6" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1811,7 +1847,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1831,7 +1867,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="33">
-      <c r="A4" s="26"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="1" t="s">
         <v>69</v>
       </c>
@@ -1849,7 +1885,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="33">
-      <c r="A5" s="27"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="1" t="s">
         <v>93</v>
       </c>
@@ -1867,7 +1903,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1887,7 +1923,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="26"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>91</v>
       </c>
@@ -1903,7 +1939,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="26"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>92</v>
       </c>
@@ -1919,69 +1955,73 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="135">
-      <c r="A9" s="26"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="39" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="27"/>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:6" ht="165">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="26"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="27"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="1" t="s">
         <v>73</v>
       </c>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68276E7-E6A6-4700-A5D0-CF717772C86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84631FC-F256-41C1-B468-F659EE8FACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(주)선아전자" sheetId="1" r:id="rId1"/>
@@ -60,17 +60,6 @@
 }</t>
   </si>
   <si>
-    <t>{ 
-    user_id : "aaaaa",                  // 주문자 ID
-    order : [ 
-                { product_id : "cap_2349809"    // 상품 ID
-                  qty : 200                             // 구매갯수
-                },
-                :
-              ]
-}</t>
-  </si>
-  <si>
     <t>[
     {    product_id : ~~, product_nm : ~~~   }, {    product_id : ~~, product_nm : ~~~   }, ….
 ]</t>
@@ -89,15 +78,6 @@
 (result = 'success' / 'failed',  
   msg = result가 success일 때는 '', result가 failed 일 때는 메시지
 )</t>
-  </si>
-  <si>
-    <t>{
-    presult : {  [ product_id : "",
-                     message : "success"                          // "success" , "failed"
-                     order_no : "20240722_cap_000000"      // "yyyymmdd_고유ID_순번(6자리) 
-                   ], ….
-                  }
-}</t>
   </si>
   <si>
     <t>[
@@ -156,9 +136,6 @@
   </si>
   <si>
     <t>/product/inventory</t>
-  </si>
-  <si>
-    <t>/product/neworder</t>
   </si>
   <si>
     <t>loginId , loginPw</t>
@@ -599,13 +576,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "optionNo":"",
-    "searchTxt":""
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[   {
         "PRODUCT_ID": "CAPA-7843-4536-27384",
         "PRODUCT_NM": "카파푸어",
@@ -662,12 +632,67 @@
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "optionNo":"",  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>// "1" : 이름으로검색, "2" : PRODUCT_ID로 검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+    "searchTxt":""
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/neworder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ 
+    company_id : ""
+    user_id : "aaaaa",                  // 주문자 ID
+    order : [ 
+                { class_id : '', 
+                  product_id : "cap_2349809"    // 상품 ID
+                  qty : 200                             // 구매갯수
+                },
+                :
+              ]
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+      result  : 'Success',
+      order_no : order_no,
+      msg : ''
+    }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -718,6 +743,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -847,7 +879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,23 +982,26 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1281,8 +1316,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1299,259 +1334,259 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="C1" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="66">
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="148.5">
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
+    <row r="4" spans="2:7" ht="181.5">
+      <c r="B4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="66">
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="165">
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="66">
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E7" s="27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="115.5">
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="132">
       <c r="B9" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="115.5">
       <c r="B10" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="82.5">
       <c r="B11" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="33">
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" ht="66">
       <c r="B14" s="1"/>
       <c r="C14" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>7</v>
@@ -1560,34 +1595,34 @@
     <row r="15" spans="2:7">
       <c r="B15" s="1"/>
       <c r="C15" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="66">
       <c r="B16" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>7</v>
@@ -1596,113 +1631,113 @@
     <row r="17" spans="2:7" ht="49.5">
       <c r="B17" s="1"/>
       <c r="C17" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="132">
       <c r="B18" s="1"/>
       <c r="C18" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F18" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="66">
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>143</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>147</v>
       </c>
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" ht="33">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" ht="49.5">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="49.5">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -1799,8 +1834,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1808,22 +1843,22 @@
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.25" customWidth="1"/>
+    <col min="5" max="5" width="50.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1831,227 +1866,227 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="82.5">
+      <c r="A3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33">
+      <c r="A4" s="38"/>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33">
+      <c r="A5" s="39"/>
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="38"/>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="82.5">
-      <c r="A3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="33">
-      <c r="A4" s="34"/>
-      <c r="B4" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="38"/>
+      <c r="B8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="135">
+      <c r="A9" s="38"/>
+      <c r="B9" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="165">
+      <c r="A10" s="39"/>
+      <c r="B10" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="33">
-      <c r="A5" s="35"/>
-      <c r="B5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C10" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="38"/>
+      <c r="B12" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="34"/>
-      <c r="B7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="34"/>
-      <c r="B8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="135">
-      <c r="A9" s="34"/>
-      <c r="B9" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="165">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="36" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="39"/>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="35"/>
-      <c r="B13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="66">
       <c r="A14" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84631FC-F256-41C1-B468-F659EE8FACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57156ED-F866-46A9-81D6-0CE1C1EFDB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="153">
   <si>
     <t>고객</t>
   </si>
@@ -662,10 +662,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/product/neworder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{ 
     company_id : ""
     user_id : "aaaaa",                  // 주문자 ID
@@ -685,6 +681,22 @@
       order_no : order_no,
       msg : ''
     }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aolst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문조회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/new</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1314,10 +1326,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:G31"/>
+  <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1390,363 +1402,371 @@
         <v>99</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>142</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="15" t="s">
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="18" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="66">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="2:7" ht="66">
+      <c r="B6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="165">
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>142</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="165">
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>56</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>142</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="115.5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="66">
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>142</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="132">
-      <c r="B9" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="115.5">
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="115.5">
+      <c r="F9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="132">
       <c r="B10" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>142</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="115.5">
+      <c r="B11" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="82.5">
-      <c r="B11" s="6" t="s">
+    <row r="12" spans="2:7" ht="82.5">
+      <c r="B12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="2:7">
+      <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" ht="33">
-      <c r="B13" s="1" t="s">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" ht="33">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E14" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" ht="66">
-      <c r="B14" s="1"/>
-      <c r="C14" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" ht="66">
       <c r="B15" s="1"/>
       <c r="C15" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1"/>
+      <c r="C16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G16" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="66">
-      <c r="B16" s="23" t="s">
+    <row r="17" spans="2:7" ht="66">
+      <c r="B17" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C17" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D17" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G17" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="49.5">
-      <c r="B17" s="1"/>
-      <c r="C17" s="20" t="s">
+    <row r="18" spans="2:7" ht="49.5">
+      <c r="B18" s="1"/>
+      <c r="C18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="132">
-      <c r="B18" s="1"/>
-      <c r="C18" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>124</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="132">
+      <c r="B19" s="1"/>
+      <c r="C19" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G19" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="66">
-      <c r="B19" s="29"/>
-      <c r="C19" s="30" t="s">
+    <row r="20" spans="2:7" ht="66">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D20" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E20" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F20" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" ht="33">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" ht="49.5">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" ht="33">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" ht="49.5">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="49.5">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1"/>
@@ -1803,6 +1823,14 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/설계/01. 화면정의서/API_List.xlsx
+++ b/설계/01. 화면정의서/API_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\ESupply\설계\01. 화면정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57156ED-F866-46A9-81D6-0CE1C1EFDB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFD90D7-13F3-4FFB-90C5-318D89F7AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,9 +132,6 @@
 ]</t>
   </si>
   <si>
-    <t>/product/goodadd</t>
-  </si>
-  <si>
     <t>/product/inventory</t>
   </si>
   <si>
@@ -342,15 +339,6 @@
   </si>
   <si>
     <t>고객사 등록/저장</t>
-  </si>
-  <si>
-    <t>{
-    class_id : "",
-    product_id : "",
-    manufacturing_dttm : "",
-    lot_no : ""
-    count : ""
-}</t>
   </si>
   <si>
     <t>AGdtl</t>
@@ -697,6 +685,20 @@
   </si>
   <si>
     <t>/order/new</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    class_id : "",
+    product_id : "",
+    manufacturing_dttm : "",
+    lot_no : ""
+    count : ""
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/addgoods</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1328,8 +1330,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1346,31 +1348,31 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="C1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
@@ -1378,16 +1380,16 @@
     </row>
     <row r="3" spans="2:7" ht="66">
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -1396,52 +1398,52 @@
     </row>
     <row r="4" spans="2:7" ht="181.5">
       <c r="B4" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="E5" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="2:7" ht="66">
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
@@ -1452,16 +1454,16 @@
     </row>
     <row r="7" spans="2:7" ht="165">
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>6</v>
@@ -1472,39 +1474,39 @@
     </row>
     <row r="8" spans="2:7" ht="66">
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="115.5">
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>91</v>
+        <v>140</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>16</v>
@@ -1512,109 +1514,109 @@
     </row>
     <row r="10" spans="2:7" ht="132">
       <c r="B10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="E10" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="115.5">
       <c r="B11" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="82.5">
       <c r="B12" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" ht="33">
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" ht="66">
       <c r="B15" s="1"/>
       <c r="C15" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>7</v>
@@ -1623,34 +1625,34 @@
     <row r="16" spans="2:7">
       <c r="B16" s="1"/>
       <c r="C16" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="66">
       <c r="B17" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>7</v>
@@ -1659,94 +1661,94 @@
     <row r="18" spans="2:7" ht="49.5">
       <c r="B18" s="1"/>
       <c r="C18" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="132">
       <c r="B19" s="1"/>
       <c r="C19" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="66">
       <c r="B20" s="29"/>
       <c r="C20" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="F20" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" ht="33">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" ht="49.5">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>12</v>
@@ -1755,14 +1757,14 @@
     <row r="24" spans="2:7" ht="49.5">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
@@ -1877,16 +1879,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1894,19 +1896,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5">
@@ -1914,16 +1916,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -1932,16 +1934,16 @@
     <row r="4" spans="1:6" ht="33">
       <c r="A4" s="38"/>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -1950,19 +1952,19 @@
     <row r="5" spans="1:6" ht="33">
       <c r="A5" s="39"/>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1970,16 +1972,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -1988,69 +1990,69 @@
     <row r="7" spans="1:6">
       <c r="A7" s="38"/>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="38"/>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="135">
       <c r="A9" s="38"/>
       <c r="B9" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="165">
       <c r="A10" s="39"/>
       <c r="B10" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2058,13 +2060,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
@@ -2072,13 +2074,13 @@
     <row r="12" spans="1:6">
       <c r="A12" s="38"/>
       <c r="B12" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -2086,32 +2088,32 @@
     <row r="13" spans="1:6">
       <c r="A13" s="39"/>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="66">
       <c r="A14" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
